--- a/backend/src/test/resources/excels/deliveries.xlsx
+++ b/backend/src/test/resources/excels/deliveries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\Projects\java\personal\corgi-gift-delivery-main\backend\src\test\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\projects\corgi-gift-delivery\backend\src\test\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77806D-8904-409F-98EF-6A93BDE9DF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED950C6-3841-46AA-802D-732886279CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-216" yWindow="12852" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -967,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
